--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Function</t>
   </si>
@@ -72,10 +72,19 @@
     <t>Issue</t>
   </si>
   <si>
-    <t>#1</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Heatmap</t>
+  </si>
+  <si>
+    <t>Jsons</t>
+  </si>
+  <si>
+    <t>Jsons ordering unable to suit to wiki's requirements</t>
+  </si>
+  <si>
+    <t>semanticplacein json output  not sorted</t>
   </si>
 </sst>
 </file>
@@ -305,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -338,9 +347,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -711,13 +717,13 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
@@ -751,8 +757,8 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
+      <c r="A2" s="8">
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>11</v>
@@ -785,13 +791,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
@@ -803,13 +825,29 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="16" t="s">
         <v>13</v>
       </c>
@@ -823,9 +861,9 @@
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="18"/>
       <c r="C5" s="28"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="20"/>
       <c r="H5" s="21"/>
       <c r="J5" s="19"/>
@@ -833,9 +871,9 @@
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="20"/>
       <c r="H6" s="19" t="s">
         <v>14</v>
@@ -851,102 +889,102 @@
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="18"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="18"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="18"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="18"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Function</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>semanticplacein json output  not sorted</t>
+  </si>
+  <si>
+    <t>Bootstrap is unable to insert special characters</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>UI - Links</t>
+  </si>
+  <si>
+    <t>Broken links</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -767,11 +779,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D4" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
+        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="E2" s="12">
-        <f t="shared" ref="E2:E4" si="1">IF(G2 = "Y",0,D2)</f>
+        <f t="shared" ref="E2:E6" si="1">IF(G2 = "Y",0,D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -859,28 +871,62 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="21"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="22">
         <f>SUM(E:E)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>15</v>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-PC\Documents\NetBeansProjects\is203_g3t3\metrics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Function</t>
   </si>
@@ -97,13 +103,43 @@
   </si>
   <si>
     <t>Broken links</t>
+  </si>
+  <si>
+    <t>Low Impact (1 points)</t>
+  </si>
+  <si>
+    <t>Unimportant. Typo error or small user interface alignment issues.</t>
+  </si>
+  <si>
+    <t>High Impact (5 points)</t>
+  </si>
+  <si>
+    <t>The system runs. However, some non-critical functionalities are not working.</t>
+  </si>
+  <si>
+    <t>Critical Impact(10 points)</t>
+  </si>
+  <si>
+    <t>The system is down or is un-usable after a short period of time. We have to fix the bugs to continue.</t>
+  </si>
+  <si>
+    <t>OpenShift-Bootstrap</t>
+  </si>
+  <si>
+    <t>OpenShift-Heatmap</t>
+  </si>
+  <si>
+    <t>appusage table and locationusage table not found; causes system to crash when initializing bootstrap. table name is caps Sensitive. need to rename in IDE.</t>
+  </si>
+  <si>
+    <t>System crashes when heatmap request was sent. Possibly table name (appusage and locationusage) needs to be renamed (case sensitive)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,32 +149,57 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +230,20 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -322,11 +395,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -366,6 +529,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,6 +588,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -729,18 +924,21 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="46.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -768,7 +966,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -779,11 +977,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D6" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
+        <f t="shared" ref="D2:D8" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="E2" s="12">
-        <f t="shared" ref="E2:E6" si="1">IF(G2 = "Y",0,D2)</f>
+        <f t="shared" ref="E2:E8" si="1">IF(G2 = "Y",0,D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -802,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -836,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -870,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -878,15 +1076,15 @@
         <v>6</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>22</v>
@@ -897,7 +1095,7 @@
       <c r="H5" s="21"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -926,29 +1124,63 @@
       </c>
       <c r="I6" s="22">
         <f>SUM(E:E)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="C9" s="28"/>
       <c r="D9" s="33"/>
@@ -956,7 +1188,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="33"/>
@@ -965,7 +1197,7 @@
       <c r="F10" s="34"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="33"/>
@@ -974,7 +1206,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="33"/>
@@ -983,7 +1215,7 @@
       <c r="F12" s="34"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="33"/>
@@ -992,7 +1224,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="33"/>
@@ -1001,7 +1233,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
@@ -1009,7 +1241,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
@@ -1017,7 +1249,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -1025,7 +1257,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -1033,11 +1265,11 @@
       <c r="F18" s="34"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -1064,4 +1296,56 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="141.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Function</t>
   </si>
@@ -133,13 +133,26 @@
   </si>
   <si>
     <t>System crashes when heatmap request was sent. Possibly table name (appusage and locationusage) needs to be renamed (case sensitive)</t>
+  </si>
+  <si>
+    <t>OpenShift-Initial Bootstrap</t>
+  </si>
+  <si>
+    <t>Smartphone usage heatmap (via UI)</t>
+  </si>
+  <si>
+    <t>Crashes when input is: 6/04/2015 13:00:00 B1</t>
+  </si>
+  <si>
+    <t>Bad Gateway:The proxy server received an invalid response from an upstream server.
+System unable to load a big zip file. (Might need to increase session time.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -198,6 +211,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -489,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -552,6 +571,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,7 +946,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -977,11 +999,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D8" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
+        <f t="shared" ref="D2:D10" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="E2" s="12">
-        <f t="shared" ref="E2:E8" si="1">IF(G2 = "Y",0,D2)</f>
+        <f t="shared" ref="E2:E10" si="1">IF(G2 = "Y",0,D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1076,15 +1098,15 @@
         <v>6</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>22</v>
@@ -1111,20 +1133,20 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="22">
         <f>SUM(E:E)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>15</v>
@@ -1171,31 +1193,64 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
@@ -1203,7 +1258,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1212,7 +1267,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-PC\Documents\NetBeansProjects\is203_g3t3\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boyofthefuture\Documents\NetBeansProjects\is203_g3t3\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -946,21 +946,21 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="46.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="H5" s="21"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="33"/>
@@ -1261,7 +1261,7 @@
       <c r="F11" s="43"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="33"/>
@@ -1270,7 +1270,7 @@
       <c r="F12" s="43"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="33"/>
@@ -1279,7 +1279,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="33"/>
@@ -1288,7 +1288,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
@@ -1296,7 +1296,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
@@ -1304,7 +1304,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -1312,7 +1312,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
@@ -1320,11 +1320,11 @@
       <c r="F18" s="34"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -1361,13 +1361,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="2" width="141.08984375" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="141.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
   <si>
     <t>Function</t>
   </si>
@@ -84,13 +84,7 @@
     <t>Heatmap</t>
   </si>
   <si>
-    <t>Jsons</t>
-  </si>
-  <si>
     <t>Jsons ordering unable to suit to wiki's requirements</t>
-  </si>
-  <si>
-    <t>semanticplacein json output  not sorted</t>
   </si>
   <si>
     <t>Bootstrap is unable to insert special characters</t>
@@ -146,6 +140,123 @@
   <si>
     <t>Bad Gateway:The proxy server received an invalid response from an upstream server.
 System unable to load a big zip file. (Might need to increase session time.)</t>
+  </si>
+  <si>
+    <t>Openshift - Test case Fail</t>
+  </si>
+  <si>
+    <t>Error Messages for Location.csv and Location-Lookup don't tally</t>
+  </si>
+  <si>
+    <t>Openshift - Error messages not in sequence</t>
+  </si>
+  <si>
+    <t>The Error messages are not printed in the right order. Eg. Row 21 appears before row 10.</t>
+  </si>
+  <si>
+    <t>Bootstrap - Cannot load large data file (Data-zip 1)</t>
+  </si>
+  <si>
+    <t>The first data file of thousand entries cannot load finish before Java throws a Java Heap/Java out of memory error</t>
+  </si>
+  <si>
+    <t>Bootstrap - Cannot load large data file (Data-zip 3)</t>
+  </si>
+  <si>
+    <t>The third data file of a million entries cannot load finish before Java throws a Java Heap/Java out of memory error</t>
+  </si>
+  <si>
+    <t>Bootstrap - Duplicate entry rows are not returning</t>
+  </si>
+  <si>
+    <t>Duplicates in Bootstrap for the "most recent entry" have been solved, but then checking with the database for AddBatch are not displaying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone usage heatmap - misread instructions </t>
+  </si>
+  <si>
+    <t>Usage heatmap not supposed to take location data as "not there" after 5 minutes.</t>
+  </si>
+  <si>
+    <t>Bootstrap - Add Batch</t>
+  </si>
+  <si>
+    <t>Bootstrap - Main Function</t>
+  </si>
+  <si>
+    <t>Bootstrap - JSON Token</t>
+  </si>
+  <si>
+    <t>Bootstrap JSON does not load. Token is not passing through properly. Always returns error</t>
+  </si>
+  <si>
+    <t>Testing of Function</t>
+  </si>
+  <si>
+    <t>After logging out, database refreshes</t>
+  </si>
+  <si>
+    <t>Login - Database</t>
+  </si>
+  <si>
+    <t>After start-up, the program does not allow entry because values not in database</t>
+  </si>
+  <si>
+    <t>Login - Values</t>
+  </si>
+  <si>
+    <t>JSONs</t>
+  </si>
+  <si>
+    <t>Error Messages passing to the UI cannot be resused for the JSON. Therefore, the controller is not that helpful</t>
+  </si>
+  <si>
+    <t>semanticplace in json output not sorted</t>
+  </si>
+  <si>
+    <t>Delete Location - UI</t>
+  </si>
+  <si>
+    <t>Delete Location UI not displaying properly</t>
+  </si>
+  <si>
+    <t>Delete Location</t>
+  </si>
+  <si>
+    <t>Delete Location Test</t>
+  </si>
+  <si>
+    <t>Delete Location - Logic</t>
+  </si>
+  <si>
+    <t>Delete Location (Choosing Options) don't delete the right choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstrap </t>
+  </si>
+  <si>
+    <t>Does not consider test case of no file uploaded</t>
+  </si>
+  <si>
+    <t>Delete Location - Values</t>
+  </si>
+  <si>
+    <t>Delete Location does not consider taking no values</t>
+  </si>
+  <si>
+    <t>Add Batch</t>
+  </si>
+  <si>
+    <t>Cannot read any number of files</t>
+  </si>
+  <si>
+    <t>Fails Test case for App.csv</t>
+  </si>
+  <si>
+    <t>Checking of date allows dates that have an inverted date format eg. DD/MM/YYYY instead of YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>Categories are loaded in DAOs. Need to keep instantiating DAOs in reports.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -517,37 +628,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -572,8 +659,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -988,350 +1147,752 @@
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11">
-        <f t="shared" ref="D2:D10" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="12">
-        <f t="shared" ref="E2:E10" si="1">IF(G2 = "Y",0,D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="26">
+        <f t="shared" ref="D2:D13" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="27">
+        <f t="shared" ref="E2:E30" si="1">IF(G2 = "Y",0,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="E6" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="14">
         <f>SUM(E:E)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7" s="12">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>23</v>
+      <c r="E7" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="E8" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G11" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="43">
+        <v>10</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="43">
+        <v>5</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="43">
+        <v>10</v>
+      </c>
+      <c r="E16" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="43">
+        <v>5</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="43">
+        <v>5</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="45">
+        <v>5</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="40">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="46">
+        <v>10</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="45">
+        <v>1</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="45">
+        <v>1</v>
+      </c>
+      <c r="E22" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="B24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="45">
+        <v>5</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="45">
+        <v>5</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="45">
+        <v>5</v>
+      </c>
+      <c r="E26" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="45">
+        <v>5</v>
+      </c>
+      <c r="E27" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="45">
+        <v>10</v>
+      </c>
+      <c r="E28" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="45">
+        <v>10</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="45">
+        <v>10</v>
+      </c>
+      <c r="E30" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I6">
@@ -1345,6 +1906,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1368,35 +1930,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B4" s="20" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boyofthefuture\Documents\NetBeansProjects\is203_g3t3\metrics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11835" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1104,22 +1099,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="46.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1142,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1181,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1215,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1249,7 +1244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -1276,7 +1271,7 @@
       <c r="H5" s="13"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -1305,13 +1300,13 @@
       </c>
       <c r="I6" s="14">
         <f>SUM(E:E)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="61" customHeight="1">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -1336,7 +1331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="46.5" customHeight="1">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="42.5" customHeight="1">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -1386,7 +1381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="65.5" customHeight="1">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -1411,7 +1406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="48.75" customHeight="1">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="54" customHeight="1">
       <c r="A13" s="33">
         <v>12</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="54.75" customHeight="1">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -1510,7 +1505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="51" customHeight="1">
       <c r="A15" s="33">
         <v>14</v>
       </c>
@@ -1534,7 +1529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="49.5" customHeight="1">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -1573,16 +1568,16 @@
       </c>
       <c r="E17" s="35">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="33">
         <v>18</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -1678,7 +1673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -1717,16 +1712,16 @@
       </c>
       <c r="E23" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.25" customHeight="1">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -1750,7 +1745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="30.75" customHeight="1">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -1798,7 +1793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -1822,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="46.5" customHeight="1">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -1870,7 +1865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="36" customHeight="1">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -1906,7 +1901,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1923,13 +1918,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="141.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="141.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="22" thickTop="1" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="21" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
@@ -1945,7 +1940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="21" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
@@ -1953,7 +1948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="21" thickBot="1">
       <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
@@ -1961,8 +1956,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:2" ht="13" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boyofthefuture\Documents\NetBeansProjects\is203_g3t3\metrics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11835" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1100,21 +1105,21 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1142,7 +1147,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -1271,7 +1276,7 @@
       <c r="H5" s="13"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="61" customHeight="1">
+    <row r="7" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1">
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.5" customHeight="1">
+    <row r="9" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="65.5" customHeight="1">
+    <row r="10" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1">
+    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54" customHeight="1">
+    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>12</v>
       </c>
@@ -1481,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="54.75" customHeight="1">
+    <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -1505,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1">
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>14</v>
       </c>
@@ -1529,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.5" customHeight="1">
+    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -1577,7 +1582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33">
         <v>18</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1">
+    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30.75" customHeight="1">
+    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -1817,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -1841,7 +1846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="46.5" customHeight="1">
+    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -1865,7 +1870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36" customHeight="1">
+    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -1918,13 +1923,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="141.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="141.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" thickTop="1" thickBot="1">
+    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21" thickBot="1">
+    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" thickBot="1">
+    <row r="3" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21" thickBot="1">
+    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13" thickTop="1"/>
+    <row r="5" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>Function</t>
   </si>
@@ -257,13 +257,82 @@
   </si>
   <si>
     <t>Categories are loaded in DAOs. Need to keep instantiating DAOs in reports.</t>
+  </si>
+  <si>
+    <t>Dates should be in dd/mm/yyyy in the UI</t>
+  </si>
+  <si>
+    <t>Dates in UI</t>
+  </si>
+  <si>
+    <t>Links should use relative path</t>
+  </si>
+  <si>
+    <t>Links on UI</t>
+  </si>
+  <si>
+    <t>Basic App Cat</t>
+  </si>
+  <si>
+    <t>When date '0000' is passed in, we pass back results of 0,0,0 instead of returning error</t>
+  </si>
+  <si>
+    <t>JSON tokens not authenticating</t>
+  </si>
+  <si>
+    <t>JSON Tokens</t>
+  </si>
+  <si>
+    <t>Basic app - start date can be after end date</t>
+  </si>
+  <si>
+    <t>Basic App Dates</t>
+  </si>
+  <si>
+    <t>Smartphone overuse</t>
+  </si>
+  <si>
+    <t>there is redundant 'start time' and 'end time' field in the UI</t>
+  </si>
+  <si>
+    <t>Top-K does not take into account end date after start</t>
+  </si>
+  <si>
+    <t>Top K Dates</t>
+  </si>
+  <si>
+    <t>Top-K does not take into account forced values</t>
+  </si>
+  <si>
+    <t>Top K Forced</t>
+  </si>
+  <si>
+    <t>Top-K does not show the right values</t>
+  </si>
+  <si>
+    <t>Top-K Values</t>
+  </si>
+  <si>
+    <t>Top-K is not consistent in printing</t>
+  </si>
+  <si>
+    <t>Top-K Printing</t>
+  </si>
+  <si>
+    <t>fields do not go back to user chosen after generating report</t>
+  </si>
+  <si>
+    <t>Top-K does not account for end date properly</t>
+  </si>
+  <si>
+    <t>Top-K Dates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,6 +393,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -619,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -732,6 +813,22 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="27">
-        <f t="shared" ref="E2:E30" si="1">IF(G2 = "Y",0,D2)</f>
+        <f t="shared" ref="E2:E42" si="1">IF(G2 = "Y",0,D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
@@ -1305,7 +1402,7 @@
       </c>
       <c r="I6" s="14">
         <f>SUM(E:E)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>15</v>
@@ -1892,6 +1989,294 @@
       </c>
       <c r="G30" s="47" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="45">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="45">
+        <v>1</v>
+      </c>
+      <c r="E32" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="51">
+        <v>10</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="45">
+        <v>5</v>
+      </c>
+      <c r="E34" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="45">
+        <v>5</v>
+      </c>
+      <c r="E35" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="45">
+        <v>10</v>
+      </c>
+      <c r="E36" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="45">
+        <v>1</v>
+      </c>
+      <c r="E37" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="45">
+        <v>5</v>
+      </c>
+      <c r="E38" s="35">
+        <f>IF(G38 = "Y",0,D38)</f>
+        <v>5</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
+        <v>38</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="45">
+        <v>5</v>
+      </c>
+      <c r="E39" s="35">
+        <f>IF(G39 = "Y",0,D39)</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="45">
+        <v>5</v>
+      </c>
+      <c r="E40" s="35">
+        <f>IF(G40 = "Y",0,D40)</f>
+        <v>5</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>40</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="45">
+        <v>5</v>
+      </c>
+      <c r="E41" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="45">
+        <v>5</v>
+      </c>
+      <c r="E42" s="35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2291,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boyofthefuture\Documents\NetBeansProjects\is203_g3t3\metrics\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="11835" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>Function</t>
   </si>
@@ -326,6 +321,12 @@
   </si>
   <si>
     <t>Top-K Dates</t>
+  </si>
+  <si>
+    <t>Top k Values</t>
+  </si>
+  <si>
+    <t>Top-k Does not account for the last record before midnight properly or there could be some logic issues</t>
   </si>
 </sst>
 </file>
@@ -1199,24 +1200,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1245,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -1373,7 +1374,7 @@
       <c r="H5" s="13"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -1402,13 +1403,13 @@
       </c>
       <c r="I6" s="14">
         <f>SUM(E:E)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="65.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>12</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>14</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>16</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>18</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -2276,6 +2277,29 @@
         <v>98</v>
       </c>
       <c r="G42" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="45">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2304,17 +2328,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="141.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" customWidth="1"/>
+    <col min="2" max="2" width="141.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
@@ -2330,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
@@ -2338,7 +2362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
@@ -2346,7 +2370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:2" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -2328,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
   <si>
     <t>Function</t>
   </si>
@@ -327,6 +327,59 @@
   </si>
   <si>
     <t>Top-k Does not account for the last record before midnight properly or there could be some logic issues</t>
+  </si>
+  <si>
+    <t>Semantic place should be optional</t>
+  </si>
+  <si>
+    <t>Top-k</t>
+  </si>
+  <si>
+    <t>For fields marked "(optional)", it is not necessary to check if they are missing. However, if they are present and blank, then the "blank [field]" error is still triggered as usual.</t>
+  </si>
+  <si>
+    <t>Social Activeness</t>
+  </si>
+  <si>
+    <t>after setting all categories to lowercase, social activeness controller still compares it to "Social". This will lead to 0 results</t>
+  </si>
+  <si>
+    <t>social activeness re-uses 'total' variable and does not set it back to 0, leading to extra seconds in results</t>
+  </si>
+  <si>
+    <t>start date: 6/4/2015 end date: 6/3/2015
+result: shows -0.00 frequency. should prevent this instead</t>
+  </si>
+  <si>
+    <t>input: Date 06/04/2015 time 11w1e floor B1
+error: "You have entered an invalid date!" it should show invalid date or time</t>
+  </si>
+  <si>
+    <t>Deletion Location Data - Blank page when entered the wrong Semantic Place</t>
+  </si>
+  <si>
+    <t>Bootstrap error for app.csv, return invalid cateogry</t>
+  </si>
+  <si>
+    <t>Bootstrap - Error: Invalid Category</t>
+  </si>
+  <si>
+    <t>top-k most used schools showing blank result input: startdate 2015-04-06 enddate 2015-04-06 appcategory social</t>
+  </si>
+  <si>
+    <t>Top-k school</t>
+  </si>
+  <si>
+    <t>Basic app diurnal broken after CCA changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic app diurnal </t>
+  </si>
+  <si>
+    <t>Entering '2015-04-0a' crashes json for basic appcategory (and possibly all other jsons)</t>
+  </si>
+  <si>
+    <t>Basic App Category</t>
   </si>
 </sst>
 </file>
@@ -701,11 +754,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -750,12 +802,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -801,17 +847,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,14 +860,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,18 +1261,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="54"/>
+    <col min="6" max="6" width="85.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.453125" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -1227,1080 +1289,1345 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="48" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="49">
         <f t="shared" ref="D2:D13" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="E2" s="27">
-        <f t="shared" ref="E2:E42" si="1">IF(G2 = "Y",0,D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="55">
+        <f t="shared" ref="E2:E54" si="1">IF(G2 = "Y",0,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="C6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f>SUM(E:E)</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="G9" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="E10" s="55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E8" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E9" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="E11" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E10" s="27">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="43">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
-        <v>11</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="43">
+      <c r="D12" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E13" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="43">
-        <v>10</v>
-      </c>
-      <c r="E14" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="D14" s="50">
+        <v>10</v>
+      </c>
+      <c r="E14" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="43">
-        <v>5</v>
-      </c>
-      <c r="E15" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="C15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="50">
+        <v>5</v>
+      </c>
+      <c r="E15" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="43">
-        <v>10</v>
-      </c>
-      <c r="E16" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="50">
+        <v>10</v>
+      </c>
+      <c r="E16" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="43">
-        <v>5</v>
-      </c>
-      <c r="E17" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="C17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="50">
+        <v>5</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="43">
-        <v>5</v>
-      </c>
-      <c r="E18" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="C18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="50">
+        <v>5</v>
+      </c>
+      <c r="E18" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="45">
-        <v>5</v>
-      </c>
-      <c r="E19" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="22" t="s">
+      <c r="C19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="51">
+        <v>5</v>
+      </c>
+      <c r="E19" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="46">
-        <v>10</v>
-      </c>
-      <c r="E20" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="41" t="s">
+      <c r="D20" s="52">
+        <v>10</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="51">
         <v>1</v>
       </c>
-      <c r="E21" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="51">
         <v>1</v>
       </c>
-      <c r="E22" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="51">
         <v>1</v>
       </c>
-      <c r="E23" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="45">
-        <v>5</v>
-      </c>
-      <c r="E24" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="C24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="51">
+        <v>5</v>
+      </c>
+      <c r="E24" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="45">
-        <v>5</v>
-      </c>
-      <c r="E25" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="C25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="51">
+        <v>5</v>
+      </c>
+      <c r="E25" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="45">
-        <v>5</v>
-      </c>
-      <c r="E26" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="C26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="51">
+        <v>5</v>
+      </c>
+      <c r="E26" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="45">
-        <v>5</v>
-      </c>
-      <c r="E27" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="C27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="51">
+        <v>5</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="45">
-        <v>10</v>
-      </c>
-      <c r="E28" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="D28" s="51">
+        <v>10</v>
+      </c>
+      <c r="E28" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="45">
-        <v>10</v>
-      </c>
-      <c r="E29" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="51">
+        <v>10</v>
+      </c>
+      <c r="E29" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="45">
-        <v>10</v>
-      </c>
-      <c r="E30" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="D30" s="51">
+        <v>10</v>
+      </c>
+      <c r="E30" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="51">
         <v>1</v>
       </c>
-      <c r="E31" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="48" t="s">
+      <c r="E31" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="51">
         <v>1</v>
       </c>
-      <c r="E32" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="48" t="s">
+      <c r="E32" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="51">
-        <v>10</v>
-      </c>
-      <c r="E33" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="48" t="s">
+      <c r="D33" s="53">
+        <v>10</v>
+      </c>
+      <c r="E33" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="45">
-        <v>5</v>
-      </c>
-      <c r="E34" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="50" t="s">
+      <c r="C34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="51">
+        <v>5</v>
+      </c>
+      <c r="E34" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="45">
-        <v>5</v>
-      </c>
-      <c r="E35" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="48" t="s">
+      <c r="C35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="51">
+        <v>5</v>
+      </c>
+      <c r="E35" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="45">
-        <v>10</v>
-      </c>
-      <c r="E36" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="52" t="s">
+      <c r="D36" s="51">
+        <v>10</v>
+      </c>
+      <c r="E36" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="51">
         <v>1</v>
       </c>
-      <c r="E37" s="35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F37" s="53" t="s">
+      <c r="E37" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="47" t="s">
-        <v>21</v>
+      <c r="G37" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="45">
-        <v>5</v>
-      </c>
-      <c r="E38" s="35">
-        <f>IF(G38 = "Y",0,D38)</f>
-        <v>5</v>
-      </c>
-      <c r="F38" s="48" t="s">
+      <c r="C38" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="51">
+        <v>5</v>
+      </c>
+      <c r="E38" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="47" t="s">
-        <v>21</v>
+      <c r="G38" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="45">
-        <v>5</v>
-      </c>
-      <c r="E39" s="35">
-        <f>IF(G39 = "Y",0,D39)</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="48" t="s">
+      <c r="C39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="51">
+        <v>5</v>
+      </c>
+      <c r="E39" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="47" t="s">
-        <v>21</v>
+      <c r="G39" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="45">
-        <v>5</v>
-      </c>
-      <c r="E40" s="35">
-        <f>IF(G40 = "Y",0,D40)</f>
-        <v>5</v>
-      </c>
-      <c r="F40" s="48" t="s">
+      <c r="C40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="51">
+        <v>5</v>
+      </c>
+      <c r="E40" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G40" s="47" t="s">
-        <v>21</v>
+      <c r="G40" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="45">
-        <v>5</v>
-      </c>
-      <c r="E41" s="35">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F41" s="48" t="s">
+      <c r="C41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="51">
+        <v>5</v>
+      </c>
+      <c r="E41" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="47" t="s">
-        <v>21</v>
+      <c r="G41" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="45">
-        <v>5</v>
-      </c>
-      <c r="E42" s="35">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F42" s="48" t="s">
+      <c r="C42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="51">
+        <v>5</v>
+      </c>
+      <c r="E42" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="25" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="G42" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="45">
-        <v>5</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43" s="48" t="s">
+      <c r="C43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="51">
+        <v>5</v>
+      </c>
+      <c r="E43" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="47" t="s">
-        <v>21</v>
+      <c r="G43" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="51">
+        <v>5</v>
+      </c>
+      <c r="E44" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="51">
+        <v>10</v>
+      </c>
+      <c r="E45" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
+        <v>45</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="51">
+        <v>5</v>
+      </c>
+      <c r="E46" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="26">
+        <v>46</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="51">
+        <v>10</v>
+      </c>
+      <c r="E47" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
+        <v>47</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="51">
+        <v>5</v>
+      </c>
+      <c r="E48" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="26">
+        <v>48</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="51">
+        <v>5</v>
+      </c>
+      <c r="E49" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
+        <v>49</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="51">
+        <v>5</v>
+      </c>
+      <c r="E50" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41">
+        <v>50</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
+        <v>51</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="51">
+        <v>5</v>
+      </c>
+      <c r="E52" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
+        <v>52</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="54">
+        <v>5</v>
+      </c>
+      <c r="E53" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26">
+        <v>53</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2339,34 +2666,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
     </row>

--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
     <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
   <si>
     <t>Function</t>
   </si>
@@ -380,13 +380,73 @@
   </si>
   <si>
     <t>Basic App Category</t>
+  </si>
+  <si>
+    <t>Basic App</t>
+  </si>
+  <si>
+    <t>Basic App 1</t>
+  </si>
+  <si>
+    <t>Basic App category</t>
+  </si>
+  <si>
+    <t>Basic App diurnal</t>
+  </si>
+  <si>
+    <t>Top K</t>
+  </si>
+  <si>
+    <t>Overuse</t>
+  </si>
+  <si>
+    <t>Bootstrap/AddBatch</t>
+  </si>
+  <si>
+    <t>Result UI naming should show file names</t>
+  </si>
+  <si>
+    <t>Basic app dropdown name not userfriendly</t>
+  </si>
+  <si>
+    <t>start date after end date validation</t>
+  </si>
+  <si>
+    <t>wrong result</t>
+  </si>
+  <si>
+    <t>removes quotation from result</t>
+  </si>
+  <si>
+    <t>missing categories in result</t>
+  </si>
+  <si>
+    <t>1 difference in result</t>
+  </si>
+  <si>
+    <t>shorten dropdown name for userfriendliness</t>
+  </si>
+  <si>
+    <t>wrong overuse-index shown</t>
+  </si>
+  <si>
+    <t>wrong index to be found</t>
+  </si>
+  <si>
+    <t>results sometimes show negative number</t>
+  </si>
+  <si>
+    <t>show that "did not upload any files" despite having done so</t>
+  </si>
+  <si>
+    <t>nullpointer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -462,6 +522,18 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -751,10 +823,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -875,18 +953,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,7 +960,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1261,25 +1333,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:G54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="54"/>
-    <col min="6" max="6" width="85.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="50" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="50"/>
+    <col min="6" max="6" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1379,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1318,11 +1390,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="49">
-        <f t="shared" ref="D2:D13" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="55">
-        <f t="shared" ref="E2:E54" si="1">IF(G2 = "Y",0,D2)</f>
+        <f t="shared" ref="D2:D65" si="0">VLOOKUP(C2,$I$2:$J$5,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="51">
+        <f t="shared" ref="E2:E65" si="1">IF(G2 = "Y",0,D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="24" t="s">
@@ -1341,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -1355,7 +1427,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1375,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -1389,7 +1461,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1409,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1423,7 +1495,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1436,7 +1508,7 @@
       <c r="H5" s="12"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1450,7 +1522,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1465,13 +1537,13 @@
       </c>
       <c r="I6" s="13">
         <f>SUM(E:E)</f>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="61" customHeight="1">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1485,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1496,7 +1568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="46.5" customHeight="1">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1510,7 +1582,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1521,7 +1593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="42.75" customHeight="1">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1535,7 +1607,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1546,7 +1618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="65.5" customHeight="1">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1560,18 +1632,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E10" s="55">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="E10" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1581,11 +1653,11 @@
       <c r="C11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11" s="50">
+      <c r="D11" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1596,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="48.75" customHeight="1">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -1606,11 +1678,11 @@
       <c r="C12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="50">
+      <c r="D12" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1621,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="54" customHeight="1">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -1631,11 +1703,11 @@
       <c r="C13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="50">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E13" s="50">
+      <c r="D13" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1646,7 +1718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="54.75" customHeight="1">
       <c r="A14" s="30">
         <v>13</v>
       </c>
@@ -1656,10 +1728,11 @@
       <c r="C14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="50">
-        <v>10</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="D14" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1670,7 +1743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="51" customHeight="1">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -1680,10 +1753,11 @@
       <c r="C15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="50">
-        <v>5</v>
-      </c>
-      <c r="E15" s="50">
+      <c r="D15" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1694,7 +1768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="49.5" customHeight="1">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -1704,10 +1778,11 @@
       <c r="C16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="50">
-        <v>10</v>
-      </c>
-      <c r="E16" s="50">
+      <c r="D16" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1718,7 +1793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -1728,10 +1803,11 @@
       <c r="C17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="50">
-        <v>5</v>
-      </c>
-      <c r="E17" s="50">
+      <c r="D17" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1742,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -1752,10 +1828,11 @@
       <c r="C18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="50">
-        <v>5</v>
-      </c>
-      <c r="E18" s="50">
+      <c r="D18" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1766,7 +1843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -1776,10 +1853,11 @@
       <c r="C19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="51">
-        <v>5</v>
-      </c>
-      <c r="E19" s="50">
+      <c r="D19" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1790,7 +1868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -1800,10 +1878,11 @@
       <c r="C20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="52">
-        <v>10</v>
-      </c>
-      <c r="E20" s="50">
+      <c r="D20" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1814,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.5" customHeight="1">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -1824,10 +1903,11 @@
       <c r="C21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="51">
-        <v>1</v>
-      </c>
-      <c r="E21" s="50">
+      <c r="D21" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1838,7 +1918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -1848,10 +1928,11 @@
       <c r="C22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="51">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50">
+      <c r="D22" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1862,7 +1943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -1872,10 +1953,11 @@
       <c r="C23" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="51">
-        <v>1</v>
-      </c>
-      <c r="E23" s="50">
+      <c r="D23" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1886,7 +1968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="32.25" customHeight="1">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -1896,10 +1978,11 @@
       <c r="C24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="51">
-        <v>5</v>
-      </c>
-      <c r="E24" s="50">
+      <c r="D24" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E24" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1910,7 +1993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -1920,10 +2003,11 @@
       <c r="C25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="51">
-        <v>5</v>
-      </c>
-      <c r="E25" s="50">
+      <c r="D25" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E25" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1934,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30.75" customHeight="1">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -1944,10 +2028,11 @@
       <c r="C26" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="51">
-        <v>5</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="D26" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1958,7 +2043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -1968,10 +2053,11 @@
       <c r="C27" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="51">
-        <v>5</v>
-      </c>
-      <c r="E27" s="50">
+      <c r="D27" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E27" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1982,7 +2068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -1992,10 +2078,11 @@
       <c r="C28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="51">
-        <v>10</v>
-      </c>
-      <c r="E28" s="50">
+      <c r="D28" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2006,7 +2093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="46.5" customHeight="1">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -2016,10 +2103,11 @@
       <c r="C29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="51">
-        <v>10</v>
-      </c>
-      <c r="E29" s="50">
+      <c r="D29" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E29" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2030,7 +2118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="36" customHeight="1">
       <c r="A30" s="26">
         <v>29</v>
       </c>
@@ -2040,10 +2128,11 @@
       <c r="C30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="51">
-        <v>10</v>
-      </c>
-      <c r="E30" s="50">
+      <c r="D30" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2054,7 +2143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -2064,10 +2153,11 @@
       <c r="C31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="51">
-        <v>1</v>
-      </c>
-      <c r="E31" s="50">
+      <c r="D31" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2078,7 +2168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="26">
         <v>31</v>
       </c>
@@ -2088,10 +2178,11 @@
       <c r="C32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="51">
-        <v>1</v>
-      </c>
-      <c r="E32" s="50">
+      <c r="D32" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2102,7 +2193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="26">
         <v>32</v>
       </c>
@@ -2112,10 +2203,11 @@
       <c r="C33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="53">
-        <v>10</v>
-      </c>
-      <c r="E33" s="50">
+      <c r="D33" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E33" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2126,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="34.5" customHeight="1">
       <c r="A34" s="26">
         <v>33</v>
       </c>
@@ -2136,10 +2228,11 @@
       <c r="C34" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="51">
-        <v>5</v>
-      </c>
-      <c r="E34" s="50">
+      <c r="D34" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E34" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2150,7 +2243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="33" customHeight="1">
       <c r="A35" s="26">
         <v>34</v>
       </c>
@@ -2160,10 +2253,11 @@
       <c r="C35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="51">
-        <v>5</v>
-      </c>
-      <c r="E35" s="50">
+      <c r="D35" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E35" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2174,7 +2268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="32.25" customHeight="1">
       <c r="A36" s="26">
         <v>35</v>
       </c>
@@ -2184,10 +2278,11 @@
       <c r="C36" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="51">
-        <v>10</v>
-      </c>
-      <c r="E36" s="50">
+      <c r="D36" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E36" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2198,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="35.25" customHeight="1">
       <c r="A37" s="26">
         <v>36</v>
       </c>
@@ -2208,10 +2303,11 @@
       <c r="C37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="51">
-        <v>1</v>
-      </c>
-      <c r="E37" s="50">
+      <c r="D37" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2222,7 +2318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="26">
         <v>37</v>
       </c>
@@ -2232,10 +2328,11 @@
       <c r="C38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="51">
-        <v>5</v>
-      </c>
-      <c r="E38" s="50">
+      <c r="D38" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E38" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2246,7 +2343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="26">
         <v>38</v>
       </c>
@@ -2256,10 +2353,11 @@
       <c r="C39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="51">
-        <v>5</v>
-      </c>
-      <c r="E39" s="50">
+      <c r="D39" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E39" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2270,7 +2368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="26">
         <v>39</v>
       </c>
@@ -2280,10 +2378,11 @@
       <c r="C40" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="51">
-        <v>5</v>
-      </c>
-      <c r="E40" s="50">
+      <c r="D40" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E40" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2294,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="26">
         <v>40</v>
       </c>
@@ -2304,10 +2403,11 @@
       <c r="C41" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="51">
-        <v>5</v>
-      </c>
-      <c r="E41" s="50">
+      <c r="D41" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E41" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2318,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="26">
         <v>41</v>
       </c>
@@ -2328,10 +2428,11 @@
       <c r="C42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="51">
-        <v>5</v>
-      </c>
-      <c r="E42" s="50">
+      <c r="D42" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E42" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2342,7 +2443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13">
       <c r="A43" s="26">
         <v>42</v>
       </c>
@@ -2352,10 +2453,11 @@
       <c r="C43" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="51">
-        <v>5</v>
-      </c>
-      <c r="E43" s="50">
+      <c r="D43" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E43" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2366,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="26">
         <v>43</v>
       </c>
@@ -2376,10 +2478,11 @@
       <c r="C44" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="51">
-        <v>5</v>
-      </c>
-      <c r="E44" s="50">
+      <c r="D44" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E44" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2390,7 +2493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="41">
         <v>44</v>
       </c>
@@ -2400,10 +2503,11 @@
       <c r="C45" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="51">
-        <v>10</v>
-      </c>
-      <c r="E45" s="50">
+      <c r="D45" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E45" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2414,7 +2518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="24">
       <c r="A46" s="26">
         <v>45</v>
       </c>
@@ -2424,10 +2528,11 @@
       <c r="C46" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="51">
-        <v>5</v>
-      </c>
-      <c r="E46" s="50">
+      <c r="D46" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E46" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2438,7 +2543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13">
       <c r="A47" s="26">
         <v>46</v>
       </c>
@@ -2448,10 +2553,11 @@
       <c r="C47" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="51">
-        <v>10</v>
-      </c>
-      <c r="E47" s="50">
+      <c r="D47" s="49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2462,7 +2568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="13">
       <c r="A48" s="41">
         <v>47</v>
       </c>
@@ -2472,10 +2578,11 @@
       <c r="C48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="51">
-        <v>5</v>
-      </c>
-      <c r="E48" s="50">
+      <c r="D48" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2486,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="36">
       <c r="A49" s="26">
         <v>48</v>
       </c>
@@ -2496,10 +2603,11 @@
       <c r="C49" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="51">
-        <v>5</v>
-      </c>
-      <c r="E49" s="50">
+      <c r="D49" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2510,7 +2618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="36">
       <c r="A50" s="26">
         <v>49</v>
       </c>
@@ -2520,10 +2628,11 @@
       <c r="C50" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="51">
-        <v>5</v>
-      </c>
-      <c r="E50" s="50">
+      <c r="D50" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2534,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="41">
         <v>50</v>
       </c>
@@ -2544,10 +2653,11 @@
       <c r="C51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="51">
-        <v>5</v>
-      </c>
-      <c r="E51" s="50">
+      <c r="D51" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E51" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2558,7 +2668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="13">
       <c r="A52" s="26">
         <v>51</v>
       </c>
@@ -2568,10 +2678,11 @@
       <c r="C52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="51">
-        <v>5</v>
-      </c>
-      <c r="E52" s="50">
+      <c r="D52" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2582,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="24">
       <c r="A53" s="26">
         <v>52</v>
       </c>
@@ -2592,10 +2703,11 @@
       <c r="C53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="54">
-        <v>5</v>
-      </c>
-      <c r="E53" s="50">
+      <c r="D53" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2606,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="26">
         <v>53</v>
       </c>
@@ -2616,10 +2728,11 @@
       <c r="C54" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="54">
-        <v>5</v>
-      </c>
-      <c r="E54" s="50">
+      <c r="D54" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2628,6 +2741,381 @@
       </c>
       <c r="G54" s="41" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A55" s="41">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A56" s="26">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A57" s="41">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A58" s="26">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E58" s="51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A59" s="41">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E59" s="51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="26">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A61" s="41">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E61" s="51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="26">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E62" s="51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="41">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E63" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A64" s="26">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E64" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A65" s="41">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E65" s="51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A66" s="26">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="49">
+        <f t="shared" ref="D66:D69" si="2">VLOOKUP(C66,$I$2:$J$5,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="51">
+        <f t="shared" ref="E66:E69" si="3">IF(G66 = "Y",0,D66)</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A67" s="41">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E67" s="51">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A68" s="26">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E68" s="51">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A69" s="41">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="49">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E69" s="51">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +3130,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2659,13 +3147,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.453125" customWidth="1"/>
-    <col min="2" max="2" width="141.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="141.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="22" thickTop="1" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2673,7 +3161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="21" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -2681,7 +3169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="21" thickBot="1">
       <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
@@ -2689,7 +3177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="21" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
@@ -2697,7 +3185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="13" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
